--- a/archivosSubir/Productos12.xlsx
+++ b/archivosSubir/Productos12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Lorenzetti\archivosSubir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8B8184-2DC1-4540-93FB-CA974CD93586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E7919B-1A23-466B-8D64-33A58D81ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F12A01D2-4805-41A8-AADC-A3F9AD3487EB}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>assets/images/products/zoom/869842.jpg</t>
   </si>
   <si>
-    <t>COMBO DUCHA MAXI</t>
-  </si>
-  <si>
     <t>869970.jpg</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>Máxima comodidad y el placer de un baño con las famosas y conocidas duchas murales, dispone de un amplio esparcidor y una zona de baño más amplia para un chorro increíble. Ideal para todos los días del año, a través de su control electrónico de temperatura, permite una selección gradual y precisa, tan simple como ajustar el volumen de tu radio. Súper práctica activación a través de un botón o barra de extensión exclusiva de 30 cm que facilita el acceso.  &lt;br&gt; Una ducha que mezcla líneas curvas y audaces, está firmada por el equipo de diseño de Lorenzetti premiada por el Museu da Casa Brasileira en 2011. &lt;br&gt; La Ducha Top Jet es compatible con calentadores solares, aumentando su ámbito de uso.</t>
+  </si>
+  <si>
+    <t>COMBO DUCHA MAXI 3T</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537C0AEB-68B1-4867-9972-39149C15616A}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,8 +1068,7 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1239,7 +1238,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6">
         <v>92000</v>
@@ -1274,13 +1273,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7">
-        <v>53200</v>
+        <v>60000</v>
       </c>
       <c r="D7">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1306,7 +1305,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="C8">
         <v>86000</v>
@@ -1315,13 +1314,13 @@
         <v>72000</v>
       </c>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1338,10 +1337,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9">
         <v>580000</v>
@@ -1350,13 +1349,13 @@
         <v>487000</v>
       </c>
       <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1373,10 +1372,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10">
         <v>340000</v>
@@ -1385,13 +1384,13 @@
         <v>286000</v>
       </c>
       <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1408,10 +1407,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11">
         <v>423000</v>
@@ -1420,13 +1419,13 @@
         <v>355000</v>
       </c>
       <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1443,10 +1442,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12">
         <v>340000</v>
@@ -1455,13 +1454,13 @@
         <v>286000</v>
       </c>
       <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1478,10 +1477,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13">
         <v>423000</v>
@@ -1490,13 +1489,13 @@
         <v>355000</v>
       </c>
       <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1513,10 +1512,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14">
         <v>395000</v>
@@ -1525,13 +1524,13 @@
         <v>332000</v>
       </c>
       <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1548,10 +1547,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15">
         <v>490000</v>
@@ -1560,13 +1559,13 @@
         <v>412000</v>
       </c>
       <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1583,10 +1582,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16">
         <v>395000</v>
@@ -1595,13 +1594,13 @@
         <v>332000</v>
       </c>
       <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>66</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1618,10 +1617,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17">
         <v>490000</v>
@@ -1630,13 +1629,13 @@
         <v>412000</v>
       </c>
       <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>69</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1653,7 +1652,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>240000</v>
@@ -1662,13 +1661,13 @@
         <v>202000</v>
       </c>
       <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>73</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1685,10 +1684,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19">
         <v>300000</v>
@@ -1697,13 +1696,13 @@
         <v>252000</v>
       </c>
       <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1720,10 +1719,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20">
         <v>259000</v>
@@ -1732,13 +1731,13 @@
         <v>218000</v>
       </c>
       <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
         <v>80</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>81</v>
-      </c>
-      <c r="G20" t="s">
-        <v>82</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1755,10 +1754,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21">
         <v>139900</v>
@@ -1767,19 +1766,19 @@
         <v>118000</v>
       </c>
       <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>85</v>
-      </c>
-      <c r="G21" t="s">
-        <v>86</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
         <v>26</v>
@@ -1790,10 +1789,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22">
         <v>77000</v>
@@ -1802,13 +1801,13 @@
         <v>65000</v>
       </c>
       <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
         <v>88</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>89</v>
-      </c>
-      <c r="G22" t="s">
-        <v>90</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1825,10 +1824,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23">
         <v>233000</v>
@@ -1837,13 +1836,13 @@
         <v>196000</v>
       </c>
       <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1860,10 +1859,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24">
         <v>247000</v>
@@ -1872,19 +1871,19 @@
         <v>208000</v>
       </c>
       <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
         <v>97</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s">
         <v>26</v>
@@ -1895,10 +1894,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25">
         <v>124900</v>
@@ -1907,19 +1906,19 @@
         <v>105000</v>
       </c>
       <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
         <v>101</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>102</v>
-      </c>
-      <c r="G25" t="s">
-        <v>103</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
         <v>26</v>
@@ -1930,10 +1929,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26">
         <v>75000</v>
@@ -1942,13 +1941,13 @@
         <v>63000</v>
       </c>
       <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
         <v>105</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>106</v>
-      </c>
-      <c r="G26" t="s">
-        <v>107</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1965,10 +1964,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27">
         <v>85700</v>
@@ -1977,13 +1976,13 @@
         <v>72000</v>
       </c>
       <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
         <v>109</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>110</v>
-      </c>
-      <c r="G27" t="s">
-        <v>111</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2000,10 +1999,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28">
         <v>75000</v>
@@ -2012,13 +2011,13 @@
         <v>63000</v>
       </c>
       <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" t="s">
         <v>113</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>114</v>
-      </c>
-      <c r="G28" t="s">
-        <v>115</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2035,10 +2034,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29">
         <v>70000</v>
@@ -2047,13 +2046,13 @@
         <v>59000</v>
       </c>
       <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
         <v>117</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>118</v>
-      </c>
-      <c r="G29" t="s">
-        <v>119</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2070,7 +2069,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>62500</v>
@@ -2079,13 +2078,13 @@
         <v>53000</v>
       </c>
       <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
         <v>121</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>122</v>
-      </c>
-      <c r="G30" t="s">
-        <v>123</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -2102,10 +2101,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31">
         <v>136000</v>
@@ -2114,13 +2113,13 @@
         <v>114000</v>
       </c>
       <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
         <v>125</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>126</v>
-      </c>
-      <c r="G31" t="s">
-        <v>127</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2137,10 +2136,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32">
         <v>122000</v>
@@ -2149,13 +2148,13 @@
         <v>103000</v>
       </c>
       <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
         <v>129</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>130</v>
-      </c>
-      <c r="G32" t="s">
-        <v>131</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2172,10 +2171,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33">
         <v>163000</v>
@@ -2184,13 +2183,13 @@
         <v>137000</v>
       </c>
       <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
         <v>133</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>134</v>
-      </c>
-      <c r="G33" t="s">
-        <v>135</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2207,7 +2206,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34">
         <v>366200</v>
@@ -2216,13 +2215,13 @@
         <v>308000</v>
       </c>
       <c r="E34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" t="s">
         <v>137</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>138</v>
-      </c>
-      <c r="G34" t="s">
-        <v>139</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -2239,7 +2238,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35">
         <v>350000</v>
@@ -2248,13 +2247,13 @@
         <v>294000</v>
       </c>
       <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
         <v>141</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>142</v>
-      </c>
-      <c r="G35" t="s">
-        <v>143</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -2271,7 +2270,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36">
         <v>110000</v>
@@ -2280,13 +2279,13 @@
         <v>92000</v>
       </c>
       <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
         <v>145</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>146</v>
-      </c>
-      <c r="G36" t="s">
-        <v>147</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -2303,7 +2302,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37">
         <v>140000</v>
@@ -2312,13 +2311,13 @@
         <v>118000</v>
       </c>
       <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
         <v>149</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>150</v>
-      </c>
-      <c r="G37" t="s">
-        <v>151</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -2335,7 +2334,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38">
         <v>90000</v>
@@ -2344,13 +2343,13 @@
         <v>76000</v>
       </c>
       <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
         <v>153</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>154</v>
-      </c>
-      <c r="G38" t="s">
-        <v>155</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -2367,7 +2366,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39">
         <v>100000</v>
@@ -2376,13 +2375,13 @@
         <v>84000</v>
       </c>
       <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
         <v>157</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>158</v>
-      </c>
-      <c r="G39" t="s">
-        <v>159</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -2399,7 +2398,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40">
         <v>100000</v>
@@ -2408,13 +2407,13 @@
         <v>84000</v>
       </c>
       <c r="E40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" t="s">
         <v>161</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>162</v>
-      </c>
-      <c r="G40" t="s">
-        <v>163</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -2431,7 +2430,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41">
         <v>28900</v>
@@ -2440,13 +2439,13 @@
         <v>24000</v>
       </c>
       <c r="E41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" t="s">
         <v>165</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>166</v>
-      </c>
-      <c r="G41" t="s">
-        <v>167</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -2463,7 +2462,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42">
         <v>19200</v>
@@ -2472,13 +2471,13 @@
         <v>16000</v>
       </c>
       <c r="E42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" t="s">
         <v>169</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>170</v>
-      </c>
-      <c r="G42" t="s">
-        <v>171</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -2495,7 +2494,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43">
         <v>19000</v>
@@ -2504,13 +2503,13 @@
         <v>16000</v>
       </c>
       <c r="E43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" t="s">
         <v>173</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>174</v>
-      </c>
-      <c r="G43" t="s">
-        <v>175</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -2527,7 +2526,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44">
         <v>26000</v>
@@ -2536,13 +2535,13 @@
         <v>22000</v>
       </c>
       <c r="E44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" t="s">
         <v>177</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>178</v>
-      </c>
-      <c r="G44" t="s">
-        <v>179</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -2559,7 +2558,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C45">
         <v>55000</v>
@@ -2568,13 +2567,13 @@
         <v>46000</v>
       </c>
       <c r="E45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" t="s">
         <v>181</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>182</v>
-      </c>
-      <c r="G45" t="s">
-        <v>183</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -2591,7 +2590,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C46">
         <v>19000</v>
@@ -2600,13 +2599,13 @@
         <v>16000</v>
       </c>
       <c r="E46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" t="s">
         <v>185</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>186</v>
-      </c>
-      <c r="G46" t="s">
-        <v>187</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -2623,7 +2622,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47">
         <v>19000</v>
@@ -2632,13 +2631,13 @@
         <v>16000</v>
       </c>
       <c r="E47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" t="s">
         <v>189</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>190</v>
-      </c>
-      <c r="G47" t="s">
-        <v>191</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -2655,7 +2654,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48">
         <v>32000</v>
@@ -2664,19 +2663,19 @@
         <v>27000</v>
       </c>
       <c r="E48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" t="s">
         <v>193</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>194</v>
-      </c>
-      <c r="G48" t="s">
-        <v>195</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s">
         <v>26</v>
@@ -2687,7 +2686,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49">
         <v>30000</v>
@@ -2696,13 +2695,13 @@
         <v>25000</v>
       </c>
       <c r="E49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" t="s">
         <v>197</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>198</v>
-      </c>
-      <c r="G49" t="s">
-        <v>199</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -2719,7 +2718,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C50">
         <v>26000</v>
@@ -2728,13 +2727,13 @@
         <v>22000</v>
       </c>
       <c r="E50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" t="s">
         <v>201</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>202</v>
-      </c>
-      <c r="G50" t="s">
-        <v>203</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -2751,7 +2750,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C51">
         <v>32000</v>
@@ -2760,13 +2759,13 @@
         <v>27000</v>
       </c>
       <c r="E51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" t="s">
         <v>205</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>206</v>
-      </c>
-      <c r="G51" t="s">
-        <v>207</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -2783,7 +2782,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C52">
         <v>19000</v>
@@ -2792,13 +2791,13 @@
         <v>16000</v>
       </c>
       <c r="E52" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" t="s">
         <v>209</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>210</v>
-      </c>
-      <c r="G52" t="s">
-        <v>211</v>
       </c>
       <c r="H52">
         <v>3</v>
